--- a/data/trans_camb/P45C_R1-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P45C_R1-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 0,27</t>
+          <t>-3,66; 0,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 0,85</t>
+          <t>-3,1; 0,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 2,41</t>
+          <t>-3,13; 2,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 2,07</t>
+          <t>-1,56; 2,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 3,6</t>
+          <t>-0,32; 3,92</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 2,34</t>
+          <t>-1,8; 2,41</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 0,64</t>
+          <t>-1,98; 0,62</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 1,58</t>
+          <t>-1,26; 1,63</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 1,42</t>
+          <t>-2,03; 1,33</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-87,93; 26,02</t>
+          <t>-86,74; 33,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-85,23; 92,42</t>
+          <t>-82,87; 66,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-89,23; 180,21</t>
+          <t>-89,52; 231,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-64,37; 259,36</t>
+          <t>-68,86; 259,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-25,03; 392,35</t>
+          <t>-22,52; 511,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-95,84; 296,59</t>
+          <t>-93,89; 385,05</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-66,5; 52,19</t>
+          <t>-68,23; 45,19</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-50,14; 99,13</t>
+          <t>-43,92; 111,97</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-77,94; 91,26</t>
+          <t>-77,88; 98,61</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 2,51</t>
+          <t>-0,82; 2,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 0,62</t>
+          <t>-2,1; 0,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 2,98</t>
+          <t>-1,57; 3,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 1,14</t>
+          <t>-1,77; 0,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 0,69</t>
+          <t>-1,99; 0,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 3,03</t>
+          <t>-0,99; 2,81</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 1,34</t>
+          <t>-0,91; 1,4</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 0,26</t>
+          <t>-1,73; 0,27</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 2,37</t>
+          <t>-0,73; 2,25</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-34,99; 189,03</t>
+          <t>-33,94; 216,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-77,68; 54,74</t>
+          <t>-78,62; 74,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-69,09; 247,42</t>
+          <t>-71,86; 261,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-71,66; 123,5</t>
+          <t>-69,54; 101,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-78,09; 76,66</t>
+          <t>-77,76; 77,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-48,91; 256,15</t>
+          <t>-46,31; 266,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-41,61; 94,6</t>
+          <t>-37,59; 113,54</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-67,76; 23,6</t>
+          <t>-69,16; 27,63</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-30,28; 176,75</t>
+          <t>-34,41; 173,06</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 0,58</t>
+          <t>-1,32; 0,52</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 1,12</t>
+          <t>-0,97; 0,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 2,7</t>
+          <t>-0,13; 2,82</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 1,48</t>
+          <t>-2,05; 1,39</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,88; -1,02</t>
+          <t>-3,71; -0,98</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 0,94</t>
+          <t>-2,29; 0,98</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 0,63</t>
+          <t>-1,36; 0,59</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,02; -0,28</t>
+          <t>-2,04; -0,26</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 1,33</t>
+          <t>-0,87; 1,29</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-89,96; 243,08</t>
+          <t>-90,03; 163,78</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-74,96; 352,54</t>
+          <t>-69,78; 262,17</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-29,03; 623,79</t>
+          <t>-22,02; 576,7</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-63,83; 96,79</t>
+          <t>-58,65; 97,3</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-99,7; -45,08</t>
+          <t>-95,45; -42,54</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-66,05; 58,35</t>
+          <t>-64,76; 62,8</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-57,96; 53,75</t>
+          <t>-59,09; 47,57</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-82,77; -15,03</t>
+          <t>-82,92; -14,73</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-39,17; 107,44</t>
+          <t>-38,94; 99,76</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 0,92</t>
+          <t>-2,68; 1,01</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,85; -0,74</t>
+          <t>-3,86; -0,72</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 1,38</t>
+          <t>-2,51; 1,27</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 2,3</t>
+          <t>-1,19; 2,29</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 1,51</t>
+          <t>-1,9; 1,27</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 1,44</t>
+          <t>-1,49; 1,42</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 1,29</t>
+          <t>-1,28; 1,15</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,23; -0,05</t>
+          <t>-2,21; -0,02</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 0,89</t>
+          <t>-1,42; 0,93</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-76,58; 82,52</t>
+          <t>-76,59; 99,8</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -33,85</t>
+          <t>-100,0; -33,55</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-71,1; 125,61</t>
+          <t>-70,65; 100,81</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-41,11; 298,03</t>
+          <t>-51,6; 277,26</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-67,14; 233,47</t>
+          <t>-72,34; 176,78</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-60,28; 182,95</t>
+          <t>-58,43; 168,33</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-46,73; 105,23</t>
+          <t>-46,68; 93,55</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-81,9; 6,3</t>
+          <t>-80,0; 3,88</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-49,5; 69,15</t>
+          <t>-51,82; 72,95</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 0,77</t>
+          <t>-2,01; 0,78</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 1,05</t>
+          <t>-2,01; 0,97</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 2,55</t>
+          <t>-0,74; 2,65</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 0,69</t>
+          <t>-2,17; 0,96</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 0,68</t>
+          <t>-2,5; 0,68</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 1,08</t>
+          <t>-2,08; 1,0</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 0,35</t>
+          <t>-1,77; 0,37</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 0,41</t>
+          <t>-1,77; 0,44</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 1,43</t>
+          <t>-0,82; 1,43</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
+          <t>-100,0; 258,86</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-42,72; 459,63</t>
+          <t>-45,11; 553,71</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-89,38; 104,37</t>
+          <t>-86,87; 176,15</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-89,5; 102,63</t>
+          <t>-90,07; 133,7</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-66,36; 151,01</t>
+          <t>-69,38; 123,79</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-81,02; 52,97</t>
+          <t>-80,81; 46,14</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-82,29; 60,64</t>
+          <t>-80,59; 62,49</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-37,78; 156,01</t>
+          <t>-40,34; 165,05</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 0,51</t>
+          <t>-1,76; 0,42</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 0,89</t>
+          <t>-1,51; 0,88</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 0,32</t>
+          <t>-1,79; 0,29</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 1,13</t>
+          <t>-0,52; 1,12</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 0,59</t>
+          <t>-0,94; 0,51</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 0,38</t>
+          <t>-0,98; 0,39</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 0,57</t>
+          <t>-0,75; 0,59</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 0,49</t>
+          <t>-0,9; 0,41</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 0,2</t>
+          <t>-0,91; 0,21</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
+          <t>-100,0; 200,22</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>-92,83; 250,99</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>-87,77; 89,44</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>-72,24; 584,62</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-88,08; 108,25</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-70,88; 607,96</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-79,59; 218,66</t>
+          <t>-82,26; 270,26</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-68,17; 139,36</t>
+          <t>-67,6; 168,15</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-74,98; 141,91</t>
+          <t>-79,3; 123,93</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-75,45; 61,22</t>
+          <t>-73,5; 60,48</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 0,2</t>
+          <t>-1,01; 0,24</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,33; -0,22</t>
+          <t>-1,33; -0,18</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 0,8</t>
+          <t>-0,62; 0,76</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 0,54</t>
+          <t>-0,76; 0,51</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,21; -0,04</t>
+          <t>-1,15; 0,01</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 0,35</t>
+          <t>-0,8; 0,4</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 0,27</t>
+          <t>-0,68; 0,17</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,05; -0,23</t>
+          <t>-1,09; -0,25</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 0,38</t>
+          <t>-0,52; 0,39</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-47,19; 16,39</t>
+          <t>-50,15; 20,13</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-66,1; -15,21</t>
+          <t>-66,06; -10,99</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-29,73; 57,05</t>
+          <t>-32,56; 58,13</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-35,0; 39,13</t>
+          <t>-35,85; 38,65</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-57,08; -2,02</t>
+          <t>-56,04; 2,1</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-39,18; 26,47</t>
+          <t>-39,47; 28,73</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-34,7; 18,78</t>
+          <t>-36,7; 13,44</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-54,85; -16,33</t>
+          <t>-56,97; -17,11</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-28,74; 27,13</t>
+          <t>-28,01; 26,96</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P45C_R1-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P45C_R1-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 0,35</t>
+          <t>-3,67; 0,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 0,99</t>
+          <t>-3,22; 1,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 2,63</t>
+          <t>-3,14; 2,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 2,11</t>
+          <t>-1,51; 2,06</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 3,92</t>
+          <t>-0,44; 3,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 2,41</t>
+          <t>-1,9; 2,73</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 0,62</t>
+          <t>-1,94; 0,71</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 1,63</t>
+          <t>-1,43; 1,52</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 1,33</t>
+          <t>-2,04; 1,17</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-86,74; 33,25</t>
+          <t>-85,9; 43,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-82,87; 66,14</t>
+          <t>-83,23; 104,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-89,52; 231,45</t>
+          <t>-88,64; 198,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-68,86; 259,38</t>
+          <t>-65,0; 222,61</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-22,52; 511,93</t>
+          <t>-28,76; 412,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-93,89; 385,05</t>
+          <t>-95,86; 408,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-68,23; 45,19</t>
+          <t>-67,89; 55,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-43,92; 111,97</t>
+          <t>-48,58; 102,18</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-77,88; 98,61</t>
+          <t>-76,53; 92,79</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 2,53</t>
+          <t>-0,98; 2,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 0,79</t>
+          <t>-2,14; 0,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 3,22</t>
+          <t>-1,72; 2,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 0,99</t>
+          <t>-1,74; 1,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 0,67</t>
+          <t>-2,03; 0,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 2,81</t>
+          <t>-1,07; 3,05</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 1,4</t>
+          <t>-0,78; 1,38</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 0,27</t>
+          <t>-1,55; 0,24</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 2,25</t>
+          <t>-0,79; 2,05</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-33,94; 216,15</t>
+          <t>-42,31; 205,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-78,62; 74,07</t>
+          <t>-78,83; 56,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-71,86; 261,0</t>
+          <t>-75,2; 210,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-69,54; 101,07</t>
+          <t>-68,51; 104,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-77,76; 77,87</t>
+          <t>-79,21; 68,73</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-46,31; 266,38</t>
+          <t>-45,16; 257,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-37,59; 113,54</t>
+          <t>-33,78; 98,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-69,16; 27,63</t>
+          <t>-66,25; 19,25</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-34,41; 173,06</t>
+          <t>-34,75; 141,93</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 0,52</t>
+          <t>-1,3; 0,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 0,98</t>
+          <t>-0,87; 1,15</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 2,82</t>
+          <t>-0,21; 2,7</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 1,39</t>
+          <t>-2,19; 1,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,71; -0,98</t>
+          <t>-3,73; -1,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 0,98</t>
+          <t>-2,24; 1,13</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 0,59</t>
+          <t>-1,44; 0,63</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,04; -0,26</t>
+          <t>-2,05; -0,31</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 1,29</t>
+          <t>-0,94; 1,4</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-90,03; 163,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-69,78; 262,17</t>
+          <t>-66,59; 298,26</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-22,02; 576,7</t>
+          <t>-38,92; 624,82</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-58,65; 97,3</t>
+          <t>-59,95; 90,5</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-95,45; -42,54</t>
+          <t>-96,14; -43,67</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-64,76; 62,8</t>
+          <t>-62,67; 73,8</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-59,09; 47,57</t>
+          <t>-59,69; 56,1</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-82,92; -14,73</t>
+          <t>-83,45; -17,08</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-38,94; 99,76</t>
+          <t>-41,37; 113,65</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 1,01</t>
+          <t>-2,56; 0,88</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,86; -0,72</t>
+          <t>-3,81; -0,72</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 1,27</t>
+          <t>-2,34; 1,19</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 2,29</t>
+          <t>-1,01; 2,27</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 1,27</t>
+          <t>-1,67; 1,26</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 1,42</t>
+          <t>-1,57; 1,43</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 1,15</t>
+          <t>-1,26; 1,19</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,21; -0,02</t>
+          <t>-2,15; 0,06</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 0,93</t>
+          <t>-1,3; 0,84</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-76,59; 99,8</t>
+          <t>-74,8; 75,91</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -33,55</t>
+          <t>-100,0; -30,58</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-70,65; 100,81</t>
+          <t>-72,38; 98,75</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-51,6; 277,26</t>
+          <t>-47,98; 224,09</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-72,34; 176,78</t>
+          <t>-69,8; 145,96</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-58,43; 168,33</t>
+          <t>-56,08; 180,34</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-46,68; 93,55</t>
+          <t>-48,35; 91,38</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-80,0; 3,88</t>
+          <t>-79,08; 12,94</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-51,82; 72,95</t>
+          <t>-49,81; 62,92</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 0,78</t>
+          <t>-2,05; 0,75</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 0,97</t>
+          <t>-2,03; 0,98</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 2,65</t>
+          <t>-0,75; 2,59</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 0,96</t>
+          <t>-2,42; 0,73</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 0,68</t>
+          <t>-2,45; 0,7</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 1,0</t>
+          <t>-1,97; 1,16</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 0,37</t>
+          <t>-1,75; 0,32</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 0,44</t>
+          <t>-1,79; 0,44</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 1,43</t>
+          <t>-0,75; 1,42</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 258,86</t>
+          <t>-100,0; 263,9</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 289,56</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-45,11; 553,71</t>
+          <t>-50,35; 460,11</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-86,87; 176,15</t>
+          <t>-89,86; 100,55</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-90,07; 133,7</t>
+          <t>-89,76; 100,39</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-69,38; 123,79</t>
+          <t>-65,43; 181,54</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-80,81; 46,14</t>
+          <t>-81,36; 45,34</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-80,59; 62,49</t>
+          <t>-81,3; 70,63</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-40,34; 165,05</t>
+          <t>-37,41; 164,62</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 0,42</t>
+          <t>-1,77; 0,52</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 0,88</t>
+          <t>-1,45; 0,8</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 0,29</t>
+          <t>-1,75; 0,36</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 1,12</t>
+          <t>-0,58; 1,08</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 0,51</t>
+          <t>-0,89; 0,55</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 0,39</t>
+          <t>-0,94; 0,41</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 0,59</t>
+          <t>-0,78; 0,56</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 0,41</t>
+          <t>-0,85; 0,43</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 0,21</t>
+          <t>-0,96; 0,22</t>
         </is>
       </c>
     </row>
@@ -1871,22 +1871,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 200,22</t>
+          <t>-100,0; 228,92</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-92,83; 250,99</t>
+          <t>-90,49; 258,31</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-87,77; 89,44</t>
+          <t>-88,59; 104,41</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-72,24; 584,62</t>
+          <t>-73,86; 614,81</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -1896,22 +1896,22 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-82,26; 270,26</t>
+          <t>-82,71; 233,65</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-67,6; 168,15</t>
+          <t>-73,56; 155,89</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-79,3; 123,93</t>
+          <t>-75,34; 127,29</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-73,5; 60,48</t>
+          <t>-74,82; 61,2</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 0,24</t>
+          <t>-1,03; 0,23</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,33; -0,18</t>
+          <t>-1,44; -0,16</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 0,76</t>
+          <t>-0,66; 0,76</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 0,51</t>
+          <t>-0,7; 0,54</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 0,01</t>
+          <t>-1,06; 0,05</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 0,4</t>
+          <t>-0,75; 0,41</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 0,17</t>
+          <t>-0,67; 0,22</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,09; -0,25</t>
+          <t>-1,08; -0,28</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 0,39</t>
+          <t>-0,53; 0,36</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-50,15; 20,13</t>
+          <t>-50,63; 19,67</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-66,06; -10,99</t>
+          <t>-68,28; -11,51</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-32,56; 58,13</t>
+          <t>-34,07; 54,55</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-35,85; 38,65</t>
+          <t>-34,88; 40,05</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-56,04; 2,1</t>
+          <t>-54,82; 3,57</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-39,47; 28,73</t>
+          <t>-37,82; 31,86</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-36,7; 13,44</t>
+          <t>-34,16; 15,21</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-56,97; -17,11</t>
+          <t>-55,67; -18,33</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-28,01; 26,96</t>
+          <t>-27,46; 25,51</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P45C_R1-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P45C_R1-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,95</t>
+          <t>-1,12</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>-0,7</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 2,31</t>
+          <t>-3,32; 1,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 2,73</t>
+          <t>-1,88; 2,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 1,17</t>
+          <t>-2,11; 1,08</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-35,1%</t>
+          <t>-41,21%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-18,1%</t>
+          <t>-16,84%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-28,84%</t>
+          <t>-31,82%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-88,64; 198,42</t>
+          <t>-89,15; 170,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-95,86; 408,98</t>
+          <t>-95,38; 390,9</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,14 +831,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-76,53; 92,79</t>
+          <t>-78,44; 81,04</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>0,41</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 2,66</t>
+          <t>-1,68; 2,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 3,05</t>
+          <t>-1,31; 2,8</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 2,05</t>
+          <t>-0,95; 1,99</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>11,68%</t>
+          <t>16,41%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>42,9%</t>
+          <t>27,52%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>27,47%</t>
+          <t>21,74%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-75,2; 210,33</t>
+          <t>-74,68; 231,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-45,16; 257,29</t>
+          <t>-53,43; 233,67</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-34,75; 141,93</t>
+          <t>-41,75; 139,84</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,23</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 2,7</t>
+          <t>-0,21; 2,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 1,13</t>
+          <t>-2,2; 1,21</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 1,4</t>
+          <t>-0,93; 1,42</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>121,74%</t>
+          <t>121,85%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-24,89%</t>
+          <t>-23,1%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>11,2%</t>
+          <t>12,58%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-38,92; 624,82</t>
+          <t>-39,01; 619,42</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-62,67; 73,8</t>
+          <t>-61,6; 78,12</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-41,37; 113,65</t>
+          <t>-41,0; 114,9</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,44</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>-0,41</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 1,19</t>
+          <t>-2,79; 0,74</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 1,43</t>
+          <t>-1,59; 1,36</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 0,84</t>
+          <t>-1,59; 0,61</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-19,53%</t>
+          <t>-38,4%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>7,9%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-7,96%</t>
+          <t>-20,98%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-72,38; 98,75</t>
+          <t>-82,6; 52,29</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-56,08; 180,34</t>
+          <t>-57,82; 181,57</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-49,81; 62,92</t>
+          <t>-61,04; 44,07</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 2,59</t>
+          <t>-0,74; 2,58</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 1,16</t>
+          <t>-1,96; 1,15</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 1,42</t>
+          <t>-0,74; 1,44</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>76,31%</t>
+          <t>76,11%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-13,95%</t>
+          <t>-13,51%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>24,42%</t>
+          <t>24,82%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-50,35; 460,11</t>
+          <t>-50,19; 468,33</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-65,43; 181,54</t>
+          <t>-65,17; 176,98</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-37,41; 164,62</t>
+          <t>-37,5; 165,05</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-0,47</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-0,28</t>
+          <t>-0,25</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 0,52</t>
+          <t>-1,7; 1,58</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 0,8</t>
+          <t>-1,5; 1,95</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 0,36</t>
+          <t>-2,33; 0,71</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 1,08</t>
+          <t>-1,04; 1,82</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 0,55</t>
+          <t>-1,34; 0,84</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 0,41</t>
+          <t>-1,66; 0,53</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 0,56</t>
+          <t>-0,82; 1,31</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 0,43</t>
+          <t>-1,12; 0,9</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 0,22</t>
+          <t>-1,18; 0,52</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-48,27%</t>
+          <t>18,94%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-25,34%</t>
+          <t>5,05%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-46,19%</t>
+          <t>-27,24%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>47,23%</t>
+          <t>38,5%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-23,96%</t>
+          <t>-31,67%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-23,27%</t>
+          <t>-34,6%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-7,84%</t>
+          <t>29,32%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-24,55%</t>
+          <t>-14,37%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-36,78%</t>
+          <t>-31,86%</t>
         </is>
       </c>
     </row>
@@ -1871,22 +1871,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 228,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-90,49; 258,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-88,59; 104,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-73,86; 614,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -1896,29 +1896,29 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-82,71; 233,65</t>
+          <t>-100,0; 215,5</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-73,56; 155,89</t>
+          <t>-69,07; 465,15</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-75,34; 127,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-74,82; 61,2</t>
+          <t>-80,14; 226,89</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>-0,82</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-0,23</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-0,66</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>-0,38</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 0,23</t>
+          <t>-3,91; -0,39</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,44; -0,16</t>
+          <t>-2,94; 0,68</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 0,76</t>
+          <t>-3,11; 0,34</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 0,54</t>
+          <t>-0,69; 1,38</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 0,05</t>
+          <t>-0,98; 0,65</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 0,41</t>
+          <t>-1,31; 0,35</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 0,22</t>
+          <t>-1,4; 0,35</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,08; -0,28</t>
+          <t>-1,28; 0,63</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 0,36</t>
+          <t>-1,36; 0,2</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-23,24%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-45,74%</t>
+          <t>-50,17%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>-61,44%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-4,48%</t>
+          <t>78,58%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-32,8%</t>
+          <t>-1,22%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-12,24%</t>
+          <t>-32,46%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-13,74%</t>
+          <t>-50,86%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-39,15%</t>
+          <t>-36,49%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-5,94%</t>
+          <t>-52,93%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-93,48; 141,77</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>-0,39</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>-0,77</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>-0,09</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>-0,07</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>-0,55</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-0,26</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>-0,23</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>-0,66</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>-0,17</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-1,03; 0,23</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-1,44; -0,16</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-0,8; 0,61</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-0,7; 0,54</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-1,06; 0,05</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-0,84; 0,35</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-0,67; 0,22</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-1,08; -0,28</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>-0,6; 0,32</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>-23,24%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>-45,74%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>-5,07%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>-4,48%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>-32,8%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>-15,48%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>-13,74%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>-39,15%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>-10,41%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>-50,63; 19,67</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>-68,28; -11,51</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-34,07; 54,55</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>-40,87; 45,46</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>-34,88; 40,05</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>-54,82; 3,57</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>-37,82; 31,86</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>-42,29; 26,97</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>-34,16; 15,21</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>-55,67; -18,33</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>-27,46; 25,51</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>-31,53; 20,27</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P45C_R1-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P45C_R1-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 0,3</t>
+          <t>-3,4; 0,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 1,19</t>
+          <t>-3,34; 0,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 1,92</t>
+          <t>-3,26; 1,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 2,06</t>
+          <t>-1,38; 2,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 3,5</t>
+          <t>-0,45; 3,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 2,75</t>
+          <t>-2,02; 2,96</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 0,71</t>
+          <t>-1,89; 0,62</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 1,52</t>
+          <t>-1,38; 1,84</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 1,08</t>
+          <t>-2,1; 1,14</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-85,9; 43,15</t>
+          <t>-84,01; 42,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-83,23; 104,41</t>
+          <t>-85,95; 86,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-89,15; 170,23</t>
+          <t>-91,01; 169,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-65,0; 222,61</t>
+          <t>-60,31; 250,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-28,76; 412,01</t>
+          <t>-26,69; 396,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-95,38; 390,9</t>
+          <t>-95,95; 322,02</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-67,89; 55,91</t>
+          <t>-67,45; 44,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-48,58; 102,18</t>
+          <t>-48,01; 133,42</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-78,44; 81,04</t>
+          <t>-77,88; 79,13</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 2,64</t>
+          <t>-0,84; 2,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 0,58</t>
+          <t>-2,02; 0,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 2,97</t>
+          <t>-1,79; 3,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 1,04</t>
+          <t>-1,87; 1,02</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 0,67</t>
+          <t>-2,24; 0,68</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 2,8</t>
+          <t>-1,35; 2,77</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 1,38</t>
+          <t>-0,79; 1,45</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 0,24</t>
+          <t>-1,66; 0,27</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 1,99</t>
+          <t>-0,82; 2,08</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-42,31; 205,94</t>
+          <t>-36,63; 195,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-78,83; 56,67</t>
+          <t>-76,85; 46,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-74,68; 231,88</t>
+          <t>-73,29; 245,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-68,51; 104,26</t>
+          <t>-70,09; 110,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-79,21; 68,73</t>
+          <t>-80,52; 75,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-53,43; 233,67</t>
+          <t>-60,32; 224,03</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-33,78; 98,91</t>
+          <t>-34,46; 110,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-66,25; 19,25</t>
+          <t>-68,95; 21,28</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-41,75; 139,84</t>
+          <t>-39,04; 136,95</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 0,51</t>
+          <t>-1,41; 0,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 1,15</t>
+          <t>-0,96; 1,1</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 2,68</t>
+          <t>-0,26; 2,81</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 1,37</t>
+          <t>-2,2; 1,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,73; -1,0</t>
+          <t>-3,74; -1,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 1,21</t>
+          <t>-2,45; 1,02</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 0,63</t>
+          <t>-1,49; 0,61</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,05; -0,31</t>
+          <t>-2,04; -0,23</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 1,42</t>
+          <t>-0,78; 1,39</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,64; 209,6</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-66,59; 298,26</t>
+          <t>-76,49; 261,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-39,01; 619,42</t>
+          <t>-37,24; 603,2</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-59,95; 90,5</t>
+          <t>-63,36; 71,18</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-96,14; -43,67</t>
+          <t>-96,81; -43,21</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-61,6; 78,12</t>
+          <t>-64,17; 66,07</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-59,69; 56,1</t>
+          <t>-60,66; 57,52</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-83,45; -17,08</t>
+          <t>-83,72; -16,31</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-41,0; 114,9</t>
+          <t>-35,49; 119,01</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 0,88</t>
+          <t>-2,68; 0,89</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,81; -0,72</t>
+          <t>-3,68; -0,74</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 0,74</t>
+          <t>-2,91; 0,67</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 2,27</t>
+          <t>-1,02; 2,35</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 1,26</t>
+          <t>-1,57; 1,48</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 1,36</t>
+          <t>-1,36; 1,41</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 1,19</t>
+          <t>-1,22; 1,12</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 0,06</t>
+          <t>-2,18; 0,0</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 0,61</t>
+          <t>-1,72; 0,73</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-74,8; 75,91</t>
+          <t>-76,07; 85,79</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -30,58</t>
+          <t>-100,0; -29,35</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-82,6; 52,29</t>
+          <t>-82,32; 56,16</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-47,98; 224,09</t>
+          <t>-42,69; 276,96</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-69,8; 145,96</t>
+          <t>-63,32; 176,77</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-57,82; 181,57</t>
+          <t>-52,68; 205,63</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-48,35; 91,38</t>
+          <t>-49,96; 88,98</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-79,08; 12,94</t>
+          <t>-79,84; 6,63</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-61,04; 44,07</t>
+          <t>-61,13; 60,1</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 0,75</t>
+          <t>-2,06; 0,78</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 0,98</t>
+          <t>-2,06; 1,08</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 2,58</t>
+          <t>-0,55; 2,61</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 0,73</t>
+          <t>-2,36; 0,79</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 0,7</t>
+          <t>-2,47; 0,5</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 1,15</t>
+          <t>-2,06; 1,14</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 0,32</t>
+          <t>-1,65; 0,39</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 0,44</t>
+          <t>-1,78; 0,44</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 1,44</t>
+          <t>-0,8; 1,47</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 263,9</t>
+          <t>-100,0; 209,55</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 289,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-50,19; 468,33</t>
+          <t>-33,11; 494,93</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-89,86; 100,55</t>
+          <t>-88,99; 113,25</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-89,76; 100,39</t>
+          <t>-90,37; 101,41</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-65,17; 176,98</t>
+          <t>-67,84; 180,97</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-81,36; 45,34</t>
+          <t>-79,85; 52,2</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-81,3; 70,63</t>
+          <t>-80,3; 60,42</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-37,5; 165,05</t>
+          <t>-39,54; 172,81</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 1,58</t>
+          <t>-1,56; 1,71</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 1,95</t>
+          <t>-1,37; 1,71</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 0,71</t>
+          <t>-2,13; 0,73</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 1,82</t>
+          <t>-1,04; 1,87</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 0,84</t>
+          <t>-1,34; 0,99</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 0,53</t>
+          <t>-1,59; 0,54</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 1,31</t>
+          <t>-0,87; 1,24</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 0,9</t>
+          <t>-1,13; 0,9</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 0,52</t>
+          <t>-1,35; 0,44</t>
         </is>
       </c>
     </row>
@@ -1886,32 +1886,32 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
+          <t>-85,19; —</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 215,5</t>
+          <t>-93,6; 297,81</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-69,07; 465,15</t>
+          <t>-67,18; 410,37</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,54; 290,99</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-80,14; 226,89</t>
+          <t>-86,33; 128,79</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,91; -0,39</t>
+          <t>-3,68; -0,39</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 0,68</t>
+          <t>-3,0; 0,62</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 0,34</t>
+          <t>-3,18; 0,33</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 1,38</t>
+          <t>-0,68; 1,4</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 0,65</t>
+          <t>-0,98; 0,94</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 0,35</t>
+          <t>-1,2; 0,35</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 0,35</t>
+          <t>-1,27; 0,35</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 0,63</t>
+          <t>-1,15; 0,51</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 0,2</t>
+          <t>-1,41; 0,2</t>
         </is>
       </c>
     </row>
@@ -2122,12 +2122,12 @@
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
+          <t>-100,0; 351,36</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
-        </is>
-      </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>-93,48; 141,77</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 0,23</t>
+          <t>-1,02; 0,16</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-1,44; -0,16</t>
+          <t>-1,37; -0,21</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 0,61</t>
+          <t>-0,79; 0,55</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 0,54</t>
+          <t>-0,67; 0,55</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 0,05</t>
+          <t>-1,09; 0,04</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 0,35</t>
+          <t>-0,86; 0,31</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 0,22</t>
+          <t>-0,69; 0,19</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-1,08; -0,28</t>
+          <t>-1,07; -0,28</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 0,32</t>
+          <t>-0,58; 0,32</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-50,63; 19,67</t>
+          <t>-49,18; 13,58</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-68,28; -11,51</t>
+          <t>-66,82; -12,07</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-40,87; 45,46</t>
+          <t>-40,09; 41,18</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-34,88; 40,05</t>
+          <t>-34,32; 38,2</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-54,82; 3,57</t>
+          <t>-54,64; 3,5</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-42,29; 26,97</t>
+          <t>-43,02; 24,5</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-34,16; 15,21</t>
+          <t>-34,99; 13,59</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-55,67; -18,33</t>
+          <t>-55,98; -18,82</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-31,53; 20,27</t>
+          <t>-30,69; 21,06</t>
         </is>
       </c>
     </row>
